--- a/Arquivos/Templates/ChecklistDemanda.xlsx
+++ b/Arquivos/Templates/ChecklistDemanda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto - Relatorio Estagio\DocSmart - WF\DocSmart\Arquivos\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E744F1F9-2FAA-42EA-AB41-16D6EA2BB231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C472EA-BAB2-4408-A8BC-4F62AFDD11E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F3552106-41EC-47C9-B9B6-F5E8D5A6D883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{F3552106-41EC-47C9-B9B6-F5E8D5A6D883}"/>
   </bookViews>
   <sheets>
     <sheet name="MU-XXXX-XXXXXX" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -241,29 +241,7 @@
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{7666CA89-4FDA-4C3B-A429-16967EF58338}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{F2D6B07E-9EC1-402A-BDC0-587725B7A35F}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="50"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -576,10 +554,10 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -588,7 +566,7 @@
     <col min="5" max="16384" width="9.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -602,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -610,7 +588,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -620,470 +598,470 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
@@ -1099,15 +1077,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100110DB6EEBB155C4592323F6756E82859" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca6ef1bf231de9e71fc7f1b9f178d2b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10e77cc9-b2d8-4597-8446-65989a819b4d" xmlns:ns3="bb810f49-1c43-4878-8b24-47d538bbdbb4" xmlns:ns4="0e56c044-f2f6-4825-ae61-b726c90d87ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0993b467e2448df3c90eacf7db0aad0a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="10e77cc9-b2d8-4597-8446-65989a819b4d"/>
@@ -1349,6 +1318,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1361,14 +1339,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72359575-29A8-4747-8166-F0A5949FDFA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CBBA563-548F-4093-AB1F-D7DBDA9D2CA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1384,6 +1354,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72359575-29A8-4747-8166-F0A5949FDFA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
